--- a/tests/data/validation_nc.xlsx
+++ b/tests/data/validation_nc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dh/GitHub/iam-nomenclature/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castella\Documents\nomenclature\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BE9D7-E6EF-B349-91AB-B9088ACBABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4196868-5468-41DB-9B3C-250EFC592022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable_definitions" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Share of coal in the total primary energy mix</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,55 +415,55 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/validation_nc.xlsx
+++ b/tests/data/validation_nc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Variable</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Skip-region-aggregation</t>
-  </si>
-  <si>
-    <t>Check-aggregate</t>
-  </si>
-  <si>
     <t>Primary Energy</t>
   </si>
   <si>
@@ -38,9 +32,6 @@
   </si>
   <si>
     <t>EJ/yr</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Primary Energy|Coal</t>
@@ -124,16 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -143,9 +131,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,17 +434,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="47.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="47.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="7.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -472,61 +455,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
